--- a/LLMs/Analysis_Performance.xlsx
+++ b/LLMs/Analysis_Performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,60 @@
         <v>0.6363636363636364</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>riskavoiding</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.36363636363636</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.545454545454546</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.727272727272728</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.636363636363636</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.363636363636364</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>63.63636363636363</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.7922077922077922</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.6176470588235294</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LLMs/Analysis_Performance.xlsx
+++ b/LLMs/Analysis_Performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,6 +623,60 @@
         <v>0.6176470588235294</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>balanced</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.818181818181818</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.818181818181818</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.090909090909091</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.090909090909091</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.090909090909091</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.7032967032967034</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.6410256410256411</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LLMs/Analysis_Performance.xlsx
+++ b/LLMs/Analysis_Performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,114 @@
         <v>0.6410256410256411</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.454545454545455</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.727272727272728</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.363636363636363</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.454545454545455</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>63.63636363636363</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.6847826086956522</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.6575342465753424</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>riskaffine</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8.727272727272727</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.363636363636364</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.636363636363637</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.181818181818182</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.6623376623376623</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LLMs/Analysis_Performance.xlsx
+++ b/LLMs/Analysis_Performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,6 +785,60 @@
         <v>0.6623376623376623</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.272727272727272</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.181818181818182</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.181818181818182</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LLMs/Analysis_Performance.xlsx
+++ b/LLMs/Analysis_Performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,6 +839,60 @@
         <v>0.5833333333333334</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7.181818181818182</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.090909090909091</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.090909090909091</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.7088607594936709</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LLMs/Analysis_Performance.xlsx
+++ b/LLMs/Analysis_Performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,6 +893,60 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.272727272727272</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.363636363636363</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.363636363636363</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.7283950617283951</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.6956521739130435</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LLMs/Analysis_Performance.xlsx
+++ b/LLMs/Analysis_Performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,6 +947,60 @@
         <v>0.6956521739130435</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>asian</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.545454545454546</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.363636363636364</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.818181818181818</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.090909090909091</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.363636363636364</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.6630434782608695</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.6235294117647059</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LLMs/Analysis_Performance.xlsx
+++ b/LLMs/Analysis_Performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,6 +1001,60 @@
         <v>0.6235294117647059</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>oneshot</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10.09090909090909</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.636363636363637</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.727272727272728</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.454545454545455</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>63.63636363636363</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.7045454545454546</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LLMs/Analysis_Performance.xlsx
+++ b/LLMs/Analysis_Performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,6 +1055,60 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>fewshot</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11.18181818181818</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.363636363636363</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.545454545454545</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.181818181818182</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.454545454545455</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>63.63636363636363</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.603448275862069</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.7010309278350515</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LLMs/Analysis_Performance.xlsx
+++ b/LLMs/Analysis_Performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,6 +1109,60 @@
         <v>0.7010309278350515</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9.454545454545455</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.818181818181818</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.090909090909091</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.545454545454545</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.363636363636364</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.181818181818182</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>72.72727272727273</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.6395348837209303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LLMs/Analysis_Performance.xlsx
+++ b/LLMs/Analysis_Performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1163,6 +1163,60 @@
         <v>0.6395348837209303</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>young</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8.272727272727273</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.090909090909091</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5.181818181818182</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.090909090909091</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>63.63636363636363</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.7701149425287356</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.7307692307692307</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LLMs/Analysis_Performance.xlsx
+++ b/LLMs/Analysis_Performance.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,6 +1271,114 @@
         <v>0.6666666666666666</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3_guesser</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9.272727272727273</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.818181818181818</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.363636363636364</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.363636363636364</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.727272727272728</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.090909090909091</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.6530612244897959</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1_guesser</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7.727272727272728</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.090909090909091</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.454545454545455</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.090909090909091</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.6818181818181818</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LLMs/Analysis_Performance.xlsx
+++ b/LLMs/Analysis_Performance.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1379,6 +1379,114 @@
         <v>0.6818181818181818</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>gpt4o_baseline</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.090909090909091</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.090909090909091</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.727272727272728</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.7052631578947368</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.6933333333333334</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>gpt35-turbo_baseline</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.272727272727272</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.454545454545455</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6.090909090909091</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.545454545454545</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.363636363636364</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>RED</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>54.54545454545454</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.5523809523809524</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.6504854368932039</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
